--- a/Data_frame/balancos_definitivos/BFIT3.xlsx
+++ b/Data_frame/balancos_definitivos/BFIT3.xlsx
@@ -6758,7 +6758,7 @@
         <v>1323596.032</v>
       </c>
       <c r="O58" t="n">
-        <v>777193.9840000001</v>
+        <v>777193.856</v>
       </c>
       <c r="P58" t="n">
         <v>1359072</v>
@@ -6766,9 +6766,7 @@
       <c r="Q58" t="n">
         <v>2033376</v>
       </c>
-      <c r="R58" t="n">
-        <v>-2696859.648</v>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
         <v>519804.992</v>
       </c>
@@ -6791,7 +6789,7 @@
         <v>513131.008</v>
       </c>
       <c r="Z58" t="n">
-        <v>683779.84</v>
+        <v>683779.968</v>
       </c>
       <c r="AA58" t="n">
         <v>544913.024</v>
@@ -6865,7 +6863,7 @@
         <v>-1174210.944</v>
       </c>
       <c r="O59" t="n">
-        <v>-295961.344</v>
+        <v>-295961.152</v>
       </c>
       <c r="P59" t="n">
         <v>-1094881.024</v>
@@ -6873,9 +6871,7 @@
       <c r="Q59" t="n">
         <v>-1746034.048</v>
       </c>
-      <c r="R59" t="n">
-        <v>2388310.272</v>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
         <v>-500988.992</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>-390011.008</v>
       </c>
       <c r="AD59" t="n">
-        <v>-413632</v>
+        <v>-413632.032</v>
       </c>
       <c r="AE59" t="n">
         <v>-469676</v>
@@ -6922,7 +6918,7 @@
         <v>-460512</v>
       </c>
       <c r="AH59" t="n">
-        <v>-332652.032</v>
+        <v>-332652.064</v>
       </c>
       <c r="AI59" t="n">
         <v>-417529.984</v>
@@ -6980,9 +6976,7 @@
       <c r="Q60" t="n">
         <v>287342.016</v>
       </c>
-      <c r="R60" t="n">
-        <v>-308550.144</v>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
         <v>18816</v>
       </c>
@@ -7017,7 +7011,7 @@
         <v>153054</v>
       </c>
       <c r="AD60" t="n">
-        <v>625485.952</v>
+        <v>625486.0159999999</v>
       </c>
       <c r="AE60" t="n">
         <v>164352</v>
@@ -7067,7 +7061,7 @@
         <v>-152926</v>
       </c>
       <c r="K61" t="n">
-        <v>-224822.016</v>
+        <v>-224821.968</v>
       </c>
       <c r="L61" t="n">
         <v>-132552</v>
@@ -7087,9 +7081,7 @@
       <c r="Q61" t="n">
         <v>-258138</v>
       </c>
-      <c r="R61" t="n">
-        <v>376237.056</v>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
         <v>24630</v>
       </c>
@@ -7194,9 +7186,7 @@
       <c r="Q62" t="n">
         <v>53657</v>
       </c>
-      <c r="R62" t="n">
-        <v>-130524.992</v>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
         <v>59410</v>
       </c>
@@ -7301,9 +7291,7 @@
       <c r="Q63" t="n">
         <v>-122485</v>
       </c>
-      <c r="R63" t="n">
-        <v>202564.992</v>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
         <v>-100224</v>
       </c>
@@ -7314,7 +7302,7 @@
         <v>-125073</v>
       </c>
       <c r="V63" t="n">
-        <v>-265700.992</v>
+        <v>-265701.008</v>
       </c>
       <c r="W63" t="n">
         <v>-118842</v>
@@ -7350,7 +7338,7 @@
         <v>-128532</v>
       </c>
       <c r="AH63" t="n">
-        <v>-165348.032</v>
+        <v>-165348</v>
       </c>
       <c r="AI63" t="n">
         <v>-138998</v>
@@ -7400,7 +7388,7 @@
         <v>-104126</v>
       </c>
       <c r="O64" t="n">
-        <v>-156670.976</v>
+        <v>-156670.992</v>
       </c>
       <c r="P64" t="n">
         <v>-102893</v>
@@ -7408,9 +7396,7 @@
       <c r="Q64" t="n">
         <v>-104635</v>
       </c>
-      <c r="R64" t="n">
-        <v>206180</v>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
         <v>-105961</v>
       </c>
@@ -7457,7 +7443,7 @@
         <v>-95301</v>
       </c>
       <c r="AH64" t="n">
-        <v>-124617.984</v>
+        <v>-124617.992</v>
       </c>
       <c r="AI64" t="n">
         <v>-94484</v>
@@ -7515,9 +7501,7 @@
       <c r="Q65" t="n">
         <v>-25115</v>
       </c>
-      <c r="R65" t="n">
-        <v>35515</v>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
         <v>-18254</v>
       </c>
@@ -7622,9 +7606,7 @@
       <c r="Q66" t="n">
         <v>32675</v>
       </c>
-      <c r="R66" t="n">
-        <v>-57414.976</v>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
         <v>249588.992</v>
       </c>
@@ -7635,7 +7617,7 @@
         <v>43798</v>
       </c>
       <c r="V66" t="n">
-        <v>-131852.992</v>
+        <v>-131853</v>
       </c>
       <c r="W66" t="n">
         <v>10074</v>
@@ -7659,7 +7641,7 @@
         <v>79981</v>
       </c>
       <c r="AD66" t="n">
-        <v>113165.984</v>
+        <v>113165.992</v>
       </c>
       <c r="AE66" t="n">
         <v>64210</v>
@@ -7729,9 +7711,7 @@
       <c r="Q67" t="n">
         <v>-98566</v>
       </c>
-      <c r="R67" t="n">
-        <v>161784.96</v>
-      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
         <v>-110393</v>
       </c>
@@ -7742,7 +7722,7 @@
         <v>-27915</v>
       </c>
       <c r="V67" t="n">
-        <v>47573.992</v>
+        <v>47574</v>
       </c>
       <c r="W67" t="n">
         <v>-13760</v>
@@ -7816,7 +7796,7 @@
         <v>28968</v>
       </c>
       <c r="K68" t="n">
-        <v>152037.984</v>
+        <v>152038</v>
       </c>
       <c r="L68" t="n">
         <v>32484</v>
@@ -7836,9 +7816,7 @@
       <c r="Q68" t="n">
         <v>6331</v>
       </c>
-      <c r="R68" t="n">
-        <v>-41868</v>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
         <v>50463</v>
       </c>
@@ -7849,7 +7827,7 @@
         <v>62657</v>
       </c>
       <c r="V68" t="n">
-        <v>-184077.984</v>
+        <v>-184078</v>
       </c>
       <c r="W68" t="n">
         <v>49719</v>
@@ -7943,9 +7921,7 @@
       <c r="Q69" t="n">
         <v>29204</v>
       </c>
-      <c r="R69" t="n">
-        <v>67687.008</v>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
         <v>43446</v>
       </c>
@@ -7992,7 +7968,7 @@
         <v>51684</v>
       </c>
       <c r="AH69" t="n">
-        <v>120344</v>
+        <v>120343.992</v>
       </c>
       <c r="AI69" t="n">
         <v>50738</v>
@@ -8050,9 +8026,7 @@
       <c r="Q70" t="n">
         <v>-2892</v>
       </c>
-      <c r="R70" t="n">
-        <v>-25042</v>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
         <v>-84</v>
       </c>
@@ -8157,9 +8131,7 @@
       <c r="Q71" t="n">
         <v>2077</v>
       </c>
-      <c r="R71" t="n">
-        <v>-2878</v>
-      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
         <v>0</v>
       </c>
@@ -8264,9 +8236,7 @@
       <c r="Q72" t="n">
         <v>-4969</v>
       </c>
-      <c r="R72" t="n">
-        <v>10888</v>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
         <v>0</v>
       </c>
@@ -8351,7 +8321,7 @@
         <v>-69450</v>
       </c>
       <c r="K73" t="n">
-        <v>95461.984</v>
+        <v>95462</v>
       </c>
       <c r="L73" t="n">
         <v>21454</v>
@@ -8371,9 +8341,7 @@
       <c r="Q73" t="n">
         <v>26312</v>
       </c>
-      <c r="R73" t="n">
-        <v>42644.992</v>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
         <v>43362</v>
       </c>
@@ -8396,7 +8364,7 @@
         <v>61000</v>
       </c>
       <c r="Z73" t="n">
-        <v>126655.984</v>
+        <v>126655.992</v>
       </c>
       <c r="AA73" t="n">
         <v>45564</v>
@@ -8478,9 +8446,7 @@
       <c r="Q74" t="n">
         <v>-152</v>
       </c>
-      <c r="R74" t="n">
-        <v>-113972.008</v>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
         <v>-998</v>
       </c>
@@ -8585,9 +8551,7 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
         <v>12084</v>
       </c>
@@ -8692,9 +8656,7 @@
       <c r="Q76" t="n">
         <v>-2418</v>
       </c>
-      <c r="R76" t="n">
-        <v>9946</v>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
         <v>-4459</v>
       </c>
@@ -8799,9 +8761,7 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
         <v>0</v>
       </c>
@@ -8860,106 +8820,40 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9013,9 +8907,7 @@
       <c r="Q79" t="n">
         <v>23742</v>
       </c>
-      <c r="R79" t="n">
-        <v>-53564.992</v>
-      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
         <v>49989</v>
       </c>
@@ -9038,7 +8930,7 @@
         <v>48056</v>
       </c>
       <c r="Z79" t="n">
-        <v>13904.992</v>
+        <v>13905</v>
       </c>
       <c r="AA79" t="n">
         <v>48124</v>
